--- a/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,25</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,58</t>
+          <t>2,44; 11,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,73</t>
+          <t>1,1; 9,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,24</t>
+          <t>0,97; 10,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 9,43</t>
+          <t>1,88; 9,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,91</t>
+          <t>1,99; 9,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,14</t>
+          <t>1,18; 5,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,25</t>
+          <t>2,47; 8,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,95</t>
+          <t>2,51; 7,6</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 15,27</t>
+          <t>2,0; 15,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,95</t>
+          <t>0,84; 7,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,89</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,09</t>
+          <t>0,45; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,58</t>
+          <t>0,65; 7,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,4</t>
+          <t>1,34; 7,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,79</t>
+          <t>0,3; 3,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,24</t>
+          <t>0,86; 5,2</t>
         </is>
       </c>
     </row>
@@ -905,27 +906,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,48</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,82</t>
+          <t>0,5; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,25</t>
+          <t>0,71; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>0,0; 7,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 5,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,5</t>
+          <t>0,48; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,51</t>
+          <t>0,63; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,41</t>
+          <t>0,51; 4,8</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,37</t>
+          <t>0,41; 4,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,62</t>
+          <t>1,4; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,03</t>
+          <t>0,52; 3,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,79</t>
+          <t>0,29; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,99</t>
+          <t>0,93; 4,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,2</t>
+          <t>0,38; 2,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,61</t>
+          <t>0,52; 2,57</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,87</t>
+          <t>0,58; 5,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,12 +1146,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,64</t>
+          <t>0,63; 3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,5</t>
+          <t>0,42; 4,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1161,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,11</t>
+          <t>0,7; 3,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,7</t>
+          <t>0,75; 3,63</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,46</t>
+          <t>0,37; 3,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,01</t>
+          <t>0,57; 5,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,28</t>
+          <t>0,39; 3,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,42</t>
+          <t>0,6; 5,37</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,38</t>
+          <t>0,84; 3,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,86</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,67</t>
+          <t>1,46; 3,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,94</t>
+          <t>1,03; 2,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,77</t>
+          <t>1,21; 2,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,16</t>
+          <t>1,35; 3,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,63</t>
+          <t>1,21; 2,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,52</t>
+          <t>1,3; 2,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,93</t>
+          <t>1,51; 2,91</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa contratada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7716</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5879</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15437</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10863</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6065</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3687; 16843</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1062; 9571</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1034; 11129</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3082; 15498</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2840; 12876</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2588; 12568</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7766; 25210</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6011; 18222</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3724</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7483</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6825</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1704; 13620</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>897; 8227</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7094</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>900; 8219</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1021; 11907</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3052; 16337</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1063; 11915</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2271; 13748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7464</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>964; 9301</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>996; 8628</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4772</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6019</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>895; 7600</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1899; 10069</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>990; 9334</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7972</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10071</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8192</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4693</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1049; 10787</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3483; 16949</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2059; 15273</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>907; 8089</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4488; 19917</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2837; 15885</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2964; 14540</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5802</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8018</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7753</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>791; 8108</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2269; 12804</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1037; 10600</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3473; 17324</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2897; 13980</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4318</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4318</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1698</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7892</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1060; 10733</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1110; 10907</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7912</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1156; 10859</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1280; 11483</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5288; 20210</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27556</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11013; 27773</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10302; 29074</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18356; 40758</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>14921; 34030</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19712; 42312</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>32529; 61428</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28141; 54303</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
